--- a/data/race_entrant_data_blank_template.xlsx
+++ b/data/race_entrant_data_blank_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\GitHub\race_timing_app_dev_Benjamin_Meyer\race_timing_app_dev\Benjamin Meyer\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\GitHub\race_results_sorter_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/data/race_entrant_data_blank_template.xlsx
+++ b/data/race_entrant_data_blank_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\GitHub\race_results_sorter_app\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\GitHub\race_results_sorter_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B580B790-90A5-4A95-8DBD-C9578B401537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="150" windowWidth="25035" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="90" yWindow="375" windowWidth="27045" windowHeight="12735" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="3" r:id="rId1"/>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -451,10 +452,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -502,7 +503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -526,7 +527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -625,7 +626,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>race_categories!$A$2:$A$20</xm:f>
           </x14:formula1>
@@ -638,12 +639,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
